--- a/app/development/catalogo/data/catalogo_modelos.xlsx
+++ b/app/development/catalogo/data/catalogo_modelos.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2118" uniqueCount="908">
   <si>
     <t xml:space="preserve">CÓDIGO</t>
   </si>
@@ -169,6 +169,12 @@
     <t xml:space="preserve">2555-01</t>
   </si>
   <si>
+    <t xml:space="preserve">8999-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CM-550-L</t>
+  </si>
+  <si>
     <t xml:space="preserve">9915-01</t>
   </si>
   <si>
@@ -2479,30 +2485,24 @@
     <t xml:space="preserve">CM 700 FONTE</t>
   </si>
   <si>
-    <t xml:space="preserve">8999-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">CM-550 L</t>
   </si>
   <si>
     <t xml:space="preserve">80034-02</t>
   </si>
   <si>
-    <t xml:space="preserve">MO01-21-W 220V</t>
+    <t xml:space="preserve">MO-01-21-W 220V</t>
   </si>
   <si>
     <t xml:space="preserve">80036-02</t>
   </si>
   <si>
-    <t xml:space="preserve">MO02-34-W 220V</t>
+    <t xml:space="preserve">MO-02-34-W 220V</t>
   </si>
   <si>
     <t xml:space="preserve">80035-02</t>
   </si>
   <si>
-    <t xml:space="preserve">MO02-34-B 220V</t>
-  </si>
-  <si>
     <t xml:space="preserve">8998-01</t>
   </si>
   <si>
@@ -2587,7 +2587,7 @@
     <t xml:space="preserve">PL0224-0091-01</t>
   </si>
   <si>
-    <t xml:space="preserve">CM 500L FONTE</t>
+    <t xml:space="preserve">CM 550L FONTE</t>
   </si>
   <si>
     <t xml:space="preserve">PL0225-0006-01</t>
@@ -2818,12 +2818,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2844,10 +2848,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C706"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A616" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B665" activeCellId="0" sqref="B665"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3189,7 +3193,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -3204,7 +3208,7 @@
         <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>5</v>
@@ -3212,10 +3216,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>5</v>
@@ -3223,35 +3227,35 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,18 +3277,18 @@
         <v>64</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3295,7 +3299,7 @@
         <v>69</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3317,7 +3321,7 @@
         <v>73</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3328,7 +3332,7 @@
         <v>75</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3339,7 +3343,7 @@
         <v>77</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3350,7 +3354,7 @@
         <v>79</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3361,7 +3365,7 @@
         <v>81</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3372,7 +3376,7 @@
         <v>83</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3383,7 +3387,7 @@
         <v>85</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3394,7 +3398,7 @@
         <v>87</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3405,18 +3409,18 @@
         <v>89</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3427,7 +3431,7 @@
         <v>94</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3438,40 +3442,40 @@
         <v>96</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3479,32 +3483,32 @@
         <v>102</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C58" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3512,43 +3516,43 @@
         <v>106</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C61" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3556,21 +3560,21 @@
         <v>111</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C65" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3578,7 +3582,7 @@
         <v>114</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>15</v>
@@ -3586,24 +3590,24 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>117</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3614,7 +3618,7 @@
         <v>121</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3625,7 +3629,7 @@
         <v>123</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>5</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3636,7 +3640,7 @@
         <v>125</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3647,7 +3651,7 @@
         <v>127</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3735,7 +3739,7 @@
         <v>143</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3746,7 +3750,7 @@
         <v>145</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3754,21 +3758,21 @@
         <v>146</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C83" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3779,7 +3783,7 @@
         <v>150</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3812,7 +3816,7 @@
         <v>156</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,7 +3827,7 @@
         <v>158</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3834,7 +3838,7 @@
         <v>160</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3845,7 +3849,7 @@
         <v>162</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3864,7 +3868,7 @@
         <v>165</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>5</v>
@@ -3872,10 +3876,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>5</v>
@@ -3886,7 +3890,7 @@
         <v>168</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>5</v>
@@ -3894,10 +3898,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>5</v>
@@ -3922,7 +3926,7 @@
         <v>174</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,7 +3981,7 @@
         <v>184</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3988,7 +3992,7 @@
         <v>186</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,7 +4003,7 @@
         <v>188</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4065,7 +4069,7 @@
         <v>200</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4106,7 +4110,7 @@
         <v>207</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>5</v>
@@ -4114,10 +4118,10 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>5</v>
@@ -4150,7 +4154,7 @@
         <v>214</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>5</v>
@@ -4158,10 +4162,10 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>5</v>
@@ -4169,7 +4173,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>213</v>
@@ -4180,10 +4184,10 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>5</v>
@@ -4227,7 +4231,7 @@
         <v>225</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>5</v>
@@ -4235,10 +4239,10 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B126" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>5</v>
@@ -4260,7 +4264,7 @@
         <v>230</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>5</v>
@@ -4268,10 +4272,10 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>231</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>232</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>5</v>
@@ -4285,7 +4289,7 @@
         <v>234</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4296,7 +4300,7 @@
         <v>236</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4307,7 +4311,7 @@
         <v>238</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4318,7 +4322,7 @@
         <v>240</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4351,7 +4355,7 @@
         <v>246</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4362,7 +4366,7 @@
         <v>248</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4373,7 +4377,7 @@
         <v>250</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4392,7 +4396,7 @@
         <v>253</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>5</v>
@@ -4400,10 +4404,10 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>254</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>255</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>5</v>
@@ -4417,7 +4421,7 @@
         <v>257</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4428,7 +4432,7 @@
         <v>259</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4436,7 +4440,7 @@
         <v>260</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>15</v>
@@ -4444,10 +4448,10 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B145" s="1" t="s">
         <v>261</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>262</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>15</v>
@@ -4469,7 +4473,7 @@
         <v>265</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>15</v>
@@ -4477,13 +4481,13 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B148" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="C148" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4513,7 +4517,7 @@
         <v>272</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>5</v>
@@ -4521,10 +4525,10 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>5</v>
@@ -4532,10 +4536,10 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>5</v>
@@ -4557,7 +4561,7 @@
         <v>278</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>5</v>
@@ -4565,10 +4569,10 @@
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C156" s="1" t="s">
         <v>5</v>
@@ -4576,7 +4580,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>277</v>
@@ -4587,10 +4591,10 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>5</v>
@@ -4623,7 +4627,7 @@
         <v>287</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>5</v>
@@ -4631,10 +4635,10 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>289</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>5</v>
@@ -4667,7 +4671,7 @@
         <v>294</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>5</v>
@@ -4675,10 +4679,10 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>5</v>
@@ -4692,7 +4696,7 @@
         <v>298</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4703,7 +4707,7 @@
         <v>300</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4714,7 +4718,7 @@
         <v>302</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4722,21 +4726,21 @@
         <v>303</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="B171" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="C171" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4747,7 +4751,7 @@
         <v>307</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4755,21 +4759,21 @@
         <v>308</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="C174" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4780,7 +4784,7 @@
         <v>312</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4802,7 +4806,7 @@
         <v>316</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4813,7 +4817,7 @@
         <v>318</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4824,7 +4828,7 @@
         <v>320</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4835,7 +4839,7 @@
         <v>322</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4846,18 +4850,18 @@
         <v>324</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>325</v>
+        <v>67</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4923,7 +4927,7 @@
         <v>339</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4934,7 +4938,7 @@
         <v>341</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5099,7 +5103,7 @@
         <v>371</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5110,7 +5114,7 @@
         <v>373</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5121,7 +5125,7 @@
         <v>375</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5132,7 +5136,7 @@
         <v>377</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5143,7 +5147,7 @@
         <v>379</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5154,7 +5158,7 @@
         <v>381</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5165,7 +5169,7 @@
         <v>383</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5176,7 +5180,7 @@
         <v>385</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>325</v>
+        <v>67</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5187,7 +5191,7 @@
         <v>387</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>5</v>
+        <v>327</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5209,7 +5213,7 @@
         <v>391</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5217,21 +5221,21 @@
         <v>392</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B216" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B216" s="1" t="s">
-        <v>394</v>
-      </c>
       <c r="C216" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5242,7 +5246,7 @@
         <v>396</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5253,7 +5257,7 @@
         <v>398</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5264,7 +5268,7 @@
         <v>400</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5275,7 +5279,7 @@
         <v>402</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5286,7 +5290,7 @@
         <v>404</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5297,7 +5301,7 @@
         <v>406</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5308,7 +5312,7 @@
         <v>408</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5319,7 +5323,7 @@
         <v>410</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5330,7 +5334,7 @@
         <v>412</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5338,32 +5342,32 @@
         <v>413</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>148</v>
+        <v>414</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>410</v>
+        <v>150</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5374,7 +5378,7 @@
         <v>418</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5385,7 +5389,7 @@
         <v>420</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5396,7 +5400,7 @@
         <v>422</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5407,7 +5411,7 @@
         <v>424</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5470,7 +5474,7 @@
         <v>435</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>5</v>
@@ -5478,10 +5482,10 @@
     </row>
     <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B239" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>5</v>
@@ -5489,10 +5493,10 @@
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>5</v>
@@ -5503,7 +5507,7 @@
         <v>439</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>5</v>
@@ -5511,10 +5515,10 @@
     </row>
     <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B242" s="1" t="s">
         <v>440</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>5</v>
@@ -5525,7 +5529,7 @@
         <v>442</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>5</v>
@@ -5533,10 +5537,10 @@
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B244" s="1" t="s">
         <v>443</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>444</v>
       </c>
       <c r="C244" s="1" t="s">
         <v>5</v>
@@ -5547,7 +5551,7 @@
         <v>445</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>5</v>
@@ -5555,10 +5559,10 @@
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>446</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>438</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>5</v>
@@ -5566,13 +5570,13 @@
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5583,7 +5587,7 @@
         <v>450</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5594,7 +5598,7 @@
         <v>452</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5605,7 +5609,7 @@
         <v>454</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5613,7 +5617,7 @@
         <v>455</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C251" s="1" t="s">
         <v>5</v>
@@ -5621,10 +5625,10 @@
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>456</v>
-      </c>
-      <c r="B252" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="C252" s="1" t="s">
         <v>5</v>
@@ -5635,7 +5639,7 @@
         <v>458</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C253" s="1" t="s">
         <v>5</v>
@@ -5643,10 +5647,10 @@
     </row>
     <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B254" s="1" t="s">
         <v>459</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>457</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>5</v>
@@ -5654,10 +5658,10 @@
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C255" s="1" t="s">
         <v>5</v>
@@ -5704,7 +5708,7 @@
         <v>469</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5715,7 +5719,7 @@
         <v>471</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5726,7 +5730,7 @@
         <v>473</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5737,7 +5741,7 @@
         <v>475</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5748,7 +5752,7 @@
         <v>477</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5759,7 +5763,7 @@
         <v>479</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5770,7 +5774,7 @@
         <v>481</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5781,7 +5785,7 @@
         <v>483</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5792,7 +5796,7 @@
         <v>485</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5803,7 +5807,7 @@
         <v>487</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5814,7 +5818,7 @@
         <v>489</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5825,7 +5829,7 @@
         <v>491</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5836,7 +5840,7 @@
         <v>493</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5847,7 +5851,7 @@
         <v>495</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5858,7 +5862,7 @@
         <v>497</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5866,32 +5870,32 @@
         <v>498</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>385</v>
+        <v>499</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>325</v>
+        <v>67</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>5</v>
+        <v>327</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>501</v>
+        <v>440</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5902,7 +5906,7 @@
         <v>503</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5913,7 +5917,7 @@
         <v>505</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5921,21 +5925,21 @@
         <v>506</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="B280" s="1" t="s">
-        <v>508</v>
-      </c>
       <c r="C280" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5943,95 +5947,95 @@
         <v>509</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="B282" s="1" t="s">
-        <v>501</v>
-      </c>
       <c r="C282" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>503</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="s">
-        <v>88</v>
+        <v>516</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C289" s="1" t="s">
         <v>15</v>
@@ -6039,32 +6043,32 @@
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="s">
-        <v>378</v>
+        <v>189</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="s">
-        <v>328</v>
+        <v>380</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C292" s="1" t="s">
         <v>5</v>
@@ -6072,10 +6076,10 @@
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C293" s="1" t="s">
         <v>5</v>
@@ -6083,10 +6087,10 @@
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="s">
-        <v>210</v>
+        <v>358</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C294" s="1" t="s">
         <v>5</v>
@@ -6094,10 +6098,10 @@
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="s">
-        <v>274</v>
+        <v>212</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C295" s="1" t="s">
         <v>5</v>
@@ -6105,21 +6109,21 @@
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C297" s="1" t="s">
         <v>15</v>
@@ -6127,10 +6131,10 @@
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C298" s="1" t="s">
         <v>15</v>
@@ -6138,21 +6142,21 @@
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="s">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C300" s="1" t="s">
         <v>5</v>
@@ -6160,10 +6164,10 @@
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="s">
-        <v>368</v>
+        <v>251</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C301" s="1" t="s">
         <v>5</v>
@@ -6171,10 +6175,10 @@
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="s">
-        <v>171</v>
+        <v>370</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C302" s="1" t="s">
         <v>5</v>
@@ -6182,10 +6186,10 @@
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="s">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C303" s="1" t="s">
         <v>5</v>
@@ -6193,65 +6197,65 @@
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="s">
-        <v>474</v>
+        <v>61</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="s">
-        <v>124</v>
+        <v>476</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="s">
-        <v>370</v>
+        <v>126</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="s">
-        <v>149</v>
+        <v>340</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C309" s="1" t="s">
         <v>5</v>
@@ -6259,65 +6263,65 @@
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="s">
-        <v>315</v>
+        <v>128</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="s">
-        <v>63</v>
+        <v>311</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="s">
-        <v>374</v>
+        <v>65</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="s">
-        <v>290</v>
+        <v>376</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="s">
-        <v>122</v>
+        <v>292</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C315" s="1" t="s">
         <v>5</v>
@@ -6325,10 +6329,10 @@
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C316" s="1" t="s">
         <v>5</v>
@@ -6336,10 +6340,10 @@
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>5</v>
@@ -6347,10 +6351,10 @@
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="s">
-        <v>456</v>
+        <v>142</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>5</v>
@@ -6358,10 +6362,10 @@
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="s">
-        <v>442</v>
+        <v>458</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C319" s="1" t="s">
         <v>5</v>
@@ -6369,10 +6373,10 @@
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C320" s="1" t="s">
         <v>5</v>
@@ -6380,10 +6384,10 @@
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="s">
-        <v>134</v>
+        <v>442</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C321" s="1" t="s">
         <v>5</v>
@@ -6394,7 +6398,7 @@
         <v>136</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C322" s="1" t="s">
         <v>5</v>
@@ -6405,7 +6409,7 @@
         <v>138</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C323" s="1" t="s">
         <v>5</v>
@@ -6413,10 +6417,10 @@
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C324" s="1" t="s">
         <v>5</v>
@@ -6424,10 +6428,10 @@
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C325" s="1" t="s">
         <v>5</v>
@@ -6435,10 +6439,10 @@
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="s">
-        <v>311</v>
+        <v>153</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C326" s="1" t="s">
         <v>5</v>
@@ -6446,10 +6450,10 @@
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="s">
-        <v>239</v>
+        <v>313</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C327" s="1" t="s">
         <v>5</v>
@@ -6457,10 +6461,10 @@
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="s">
-        <v>340</v>
+        <v>241</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C328" s="1" t="s">
         <v>5</v>
@@ -6468,24 +6472,24 @@
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="s">
-        <v>245</v>
+        <v>342</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="s">
-        <v>155</v>
+        <v>247</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6493,10 +6497,10 @@
         <v>157</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6504,84 +6508,84 @@
         <v>159</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="s">
-        <v>413</v>
+        <v>148</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
-        <v>443</v>
+        <v>407</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
-        <v>214</v>
+        <v>445</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C339" s="1" t="s">
         <v>5</v>
@@ -6589,10 +6593,10 @@
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="s">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>5</v>
@@ -6600,10 +6604,10 @@
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="s">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>164</v>
+        <v>568</v>
       </c>
       <c r="C341" s="1" t="s">
         <v>5</v>
@@ -6611,10 +6615,10 @@
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="s">
-        <v>251</v>
+        <v>165</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>567</v>
+        <v>166</v>
       </c>
       <c r="C342" s="1" t="s">
         <v>5</v>
@@ -6622,10 +6626,10 @@
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C343" s="1" t="s">
         <v>5</v>
@@ -6633,10 +6637,10 @@
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
-        <v>458</v>
+        <v>287</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C344" s="1" t="s">
         <v>5</v>
@@ -6644,10 +6648,10 @@
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="s">
-        <v>223</v>
+        <v>460</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C345" s="1" t="s">
         <v>5</v>
@@ -6655,10 +6659,10 @@
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="s">
-        <v>364</v>
+        <v>225</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C346" s="1" t="s">
         <v>5</v>
@@ -6666,10 +6670,10 @@
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="s">
-        <v>433</v>
+        <v>366</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C347" s="1" t="s">
         <v>5</v>
@@ -6677,10 +6681,10 @@
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="s">
-        <v>270</v>
+        <v>435</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C348" s="1" t="s">
         <v>5</v>
@@ -6688,10 +6692,10 @@
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
-        <v>205</v>
+        <v>272</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C349" s="1" t="s">
         <v>5</v>
@@ -6699,10 +6703,10 @@
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
-        <v>462</v>
+        <v>207</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C350" s="1" t="s">
         <v>5</v>
@@ -6710,10 +6714,10 @@
     </row>
     <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="s">
-        <v>292</v>
+        <v>464</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C351" s="1" t="s">
         <v>5</v>
@@ -6721,10 +6725,10 @@
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C352" s="1" t="s">
         <v>5</v>
@@ -6732,10 +6736,10 @@
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C353" s="1" t="s">
         <v>5</v>
@@ -6743,10 +6747,10 @@
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="s">
-        <v>386</v>
+        <v>168</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C354" s="1" t="s">
         <v>5</v>
@@ -6754,10 +6758,10 @@
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
-        <v>203</v>
+        <v>388</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C355" s="1" t="s">
         <v>5</v>
@@ -6765,10 +6769,10 @@
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
-        <v>425</v>
+        <v>205</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>5</v>
@@ -6776,10 +6780,10 @@
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="s">
-        <v>161</v>
+        <v>427</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C357" s="1" t="s">
         <v>5</v>
@@ -6787,10 +6791,10 @@
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
-        <v>429</v>
+        <v>163</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C358" s="1" t="s">
         <v>5</v>
@@ -6798,10 +6802,10 @@
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="s">
-        <v>165</v>
+        <v>431</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>164</v>
+        <v>585</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>5</v>
@@ -6809,10 +6813,10 @@
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>567</v>
+        <v>166</v>
       </c>
       <c r="C360" s="1" t="s">
         <v>5</v>
@@ -6820,10 +6824,10 @@
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
-        <v>168</v>
+        <v>255</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
       <c r="C361" s="1" t="s">
         <v>5</v>
@@ -6831,10 +6835,10 @@
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>435</v>
+        <v>170</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>572</v>
+        <v>586</v>
       </c>
       <c r="C362" s="1" t="s">
         <v>5</v>
@@ -6842,10 +6846,10 @@
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="s">
-        <v>272</v>
+        <v>437</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>5</v>
@@ -6853,10 +6857,10 @@
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>5</v>
@@ -6864,10 +6868,10 @@
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="s">
-        <v>445</v>
+        <v>209</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>5</v>
@@ -6875,10 +6879,10 @@
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="s">
-        <v>215</v>
+        <v>447</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>5</v>
@@ -6886,10 +6890,10 @@
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C367" s="1" t="s">
         <v>5</v>
@@ -6897,7 +6901,7 @@
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>568</v>
@@ -6908,10 +6912,10 @@
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="s">
-        <v>459</v>
+        <v>289</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C369" s="1" t="s">
         <v>5</v>
@@ -6919,10 +6923,10 @@
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="s">
-        <v>226</v>
+        <v>461</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C370" s="1" t="s">
         <v>5</v>
@@ -6930,10 +6934,10 @@
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C371" s="1" t="s">
         <v>5</v>
@@ -6941,10 +6945,10 @@
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="s">
-        <v>466</v>
+        <v>227</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="C372" s="1" t="s">
         <v>5</v>
@@ -6952,10 +6956,10 @@
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="s">
-        <v>230</v>
+        <v>468</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="C373" s="1" t="s">
         <v>5</v>
@@ -6963,10 +6967,10 @@
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="s">
-        <v>358</v>
+        <v>232</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="C374" s="1" t="s">
         <v>5</v>
@@ -6974,43 +6978,43 @@
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="s">
-        <v>56</v>
+        <v>360</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C378" s="1" t="s">
         <v>5</v>
@@ -7018,10 +7022,10 @@
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C379" s="1" t="s">
         <v>5</v>
@@ -7029,10 +7033,10 @@
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C380" s="1" t="s">
         <v>5</v>
@@ -7040,10 +7044,10 @@
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="s">
-        <v>589</v>
+        <v>63</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>229</v>
+        <v>590</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>5</v>
@@ -7051,10 +7055,10 @@
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>467</v>
+        <v>231</v>
       </c>
       <c r="C382" s="1" t="s">
         <v>5</v>
@@ -7062,10 +7066,10 @@
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>592</v>
+        <v>469</v>
       </c>
       <c r="C383" s="1" t="s">
         <v>5</v>
@@ -7073,10 +7077,10 @@
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="s">
-        <v>431</v>
+        <v>593</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>432</v>
+        <v>594</v>
       </c>
       <c r="C384" s="1" t="s">
         <v>5</v>
@@ -7084,10 +7088,10 @@
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>332</v>
+        <v>433</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>224</v>
+        <v>434</v>
       </c>
       <c r="C385" s="1" t="s">
         <v>5</v>
@@ -7095,10 +7099,10 @@
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="s">
-        <v>436</v>
+        <v>334</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>432</v>
+        <v>226</v>
       </c>
       <c r="C386" s="1" t="s">
         <v>5</v>
@@ -7106,13 +7110,13 @@
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
-        <v>593</v>
+        <v>438</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>286</v>
+        <v>434</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>594</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7120,21 +7124,21 @@
         <v>595</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C389" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="B389" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7142,54 +7146,54 @@
         <v>598</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>444</v>
+        <v>599</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>275</v>
+        <v>465</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>603</v>
+        <v>277</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7200,7 +7204,7 @@
         <v>605</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7211,7 +7215,7 @@
         <v>607</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7222,7 +7226,7 @@
         <v>609</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>58</v>
+        <v>596</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7233,7 +7237,7 @@
         <v>611</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7244,7 +7248,7 @@
         <v>613</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7255,7 +7259,7 @@
         <v>615</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7266,7 +7270,7 @@
         <v>617</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7277,7 +7281,7 @@
         <v>619</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7288,29 +7292,29 @@
         <v>621</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="s">
-        <v>155</v>
+        <v>622</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
-        <v>622</v>
+        <v>157</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>623</v>
+        <v>560</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7321,7 +7325,7 @@
         <v>625</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7332,7 +7336,7 @@
         <v>627</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7343,7 +7347,7 @@
         <v>629</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7354,7 +7358,7 @@
         <v>631</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7362,18 +7366,18 @@
         <v>632</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>224</v>
+        <v>633</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C411" s="1" t="s">
         <v>5</v>
@@ -7381,10 +7385,10 @@
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>286</v>
+        <v>231</v>
       </c>
       <c r="C412" s="1" t="s">
         <v>5</v>
@@ -7392,10 +7396,10 @@
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C413" s="1" t="s">
         <v>5</v>
@@ -7403,10 +7407,10 @@
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>597</v>
+        <v>295</v>
       </c>
       <c r="C414" s="1" t="s">
         <v>5</v>
@@ -7414,10 +7418,10 @@
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>444</v>
+        <v>599</v>
       </c>
       <c r="C415" s="1" t="s">
         <v>5</v>
@@ -7425,10 +7429,10 @@
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="C416" s="1" t="s">
         <v>5</v>
@@ -7436,10 +7440,10 @@
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C417" s="1" t="s">
         <v>5</v>
@@ -7447,10 +7451,10 @@
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>275</v>
+        <v>465</v>
       </c>
       <c r="C418" s="1" t="s">
         <v>5</v>
@@ -7458,10 +7462,10 @@
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>642</v>
+        <v>277</v>
       </c>
       <c r="C419" s="1" t="s">
         <v>5</v>
@@ -7469,10 +7473,10 @@
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="s">
-        <v>445</v>
+        <v>643</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>441</v>
+        <v>644</v>
       </c>
       <c r="C420" s="1" t="s">
         <v>5</v>
@@ -7480,10 +7484,10 @@
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="s">
-        <v>215</v>
+        <v>447</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>643</v>
+        <v>443</v>
       </c>
       <c r="C421" s="1" t="s">
         <v>5</v>
@@ -7491,10 +7495,10 @@
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C422" s="1" t="s">
         <v>5</v>
@@ -7502,10 +7506,10 @@
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
-        <v>165</v>
+        <v>281</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>164</v>
+        <v>646</v>
       </c>
       <c r="C423" s="1" t="s">
         <v>5</v>
@@ -7513,10 +7517,10 @@
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>645</v>
+        <v>166</v>
       </c>
       <c r="C424" s="1" t="s">
         <v>5</v>
@@ -7524,10 +7528,10 @@
     </row>
     <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="1" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C425" s="1" t="s">
         <v>5</v>
@@ -7535,10 +7539,10 @@
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="1" t="s">
-        <v>459</v>
+        <v>289</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C426" s="1" t="s">
         <v>5</v>
@@ -7546,10 +7550,10 @@
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="1" t="s">
-        <v>226</v>
+        <v>461</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C427" s="1" t="s">
         <v>5</v>
@@ -7557,10 +7561,10 @@
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="s">
-        <v>326</v>
+        <v>228</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C428" s="1" t="s">
         <v>5</v>
@@ -7568,10 +7572,10 @@
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="s">
-        <v>61</v>
+        <v>328</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C429" s="1" t="s">
         <v>5</v>
@@ -7579,10 +7583,10 @@
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="s">
-        <v>590</v>
+        <v>63</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>461</v>
+        <v>652</v>
       </c>
       <c r="C430" s="1" t="s">
         <v>5</v>
@@ -7590,10 +7594,10 @@
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="1" t="s">
-        <v>230</v>
+        <v>592</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>651</v>
+        <v>463</v>
       </c>
       <c r="C431" s="1" t="s">
         <v>5</v>
@@ -7601,10 +7605,10 @@
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C432" s="1" t="s">
         <v>5</v>
@@ -7612,10 +7616,10 @@
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="s">
-        <v>364</v>
+        <v>170</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C433" s="1" t="s">
         <v>5</v>
@@ -7623,10 +7627,10 @@
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="s">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C434" s="1" t="s">
         <v>5</v>
@@ -7634,10 +7638,10 @@
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
-        <v>272</v>
+        <v>437</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C435" s="1" t="s">
         <v>5</v>
@@ -7645,10 +7649,10 @@
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
-        <v>207</v>
+        <v>274</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C436" s="1" t="s">
         <v>5</v>
@@ -7656,7 +7660,7 @@
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="s">
-        <v>657</v>
+        <v>209</v>
       </c>
       <c r="B437" s="1" t="s">
         <v>658</v>
@@ -7681,7 +7685,7 @@
         <v>661</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>426</v>
+        <v>662</v>
       </c>
       <c r="C439" s="1" t="s">
         <v>5</v>
@@ -7689,13 +7693,13 @@
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>663</v>
+        <v>428</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>325</v>
+        <v>5</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7706,7 +7710,7 @@
         <v>665</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7714,43 +7718,43 @@
         <v>666</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="s">
-        <v>66</v>
+        <v>668</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>667</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>58</v>
+        <v>327</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
-        <v>668</v>
+        <v>68</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>669</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
-        <v>157</v>
+        <v>670</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7758,73 +7762,73 @@
         <v>159</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="s">
-        <v>413</v>
+        <v>148</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
-        <v>187</v>
+        <v>416</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="1" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>257</v>
+        <v>678</v>
       </c>
       <c r="C452" s="1" t="s">
         <v>15</v>
@@ -7832,10 +7836,10 @@
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>677</v>
+        <v>259</v>
       </c>
       <c r="C453" s="1" t="s">
         <v>15</v>
@@ -7843,10 +7847,10 @@
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C454" s="1" t="s">
         <v>15</v>
@@ -7854,10 +7858,10 @@
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C455" s="1" t="s">
         <v>15</v>
@@ -7865,13 +7869,13 @@
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
-        <v>679</v>
+        <v>181</v>
       </c>
       <c r="B456" s="1" t="s">
         <v>680</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7882,18 +7886,18 @@
         <v>682</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>683</v>
+        <v>5</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="B458" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B458" s="1" t="s">
+      <c r="C458" s="1" t="s">
         <v>685</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7904,7 +7908,7 @@
         <v>687</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7915,7 +7919,7 @@
         <v>689</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7923,21 +7927,21 @@
         <v>690</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>505</v>
+        <v>691</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>58</v>
+        <v>685</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>692</v>
+        <v>507</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7948,7 +7952,7 @@
         <v>694</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>683</v>
+        <v>60</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7959,7 +7963,7 @@
         <v>696</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7970,29 +7974,29 @@
         <v>698</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8003,7 +8007,7 @@
         <v>696</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8014,26 +8018,26 @@
         <v>698</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="s">
-        <v>445</v>
+        <v>699</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>5</v>
+        <v>685</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="s">
-        <v>215</v>
+        <v>447</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="C471" s="1" t="s">
         <v>5</v>
@@ -8041,10 +8045,10 @@
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="C472" s="1" t="s">
         <v>5</v>
@@ -8052,10 +8056,10 @@
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C473" s="1" t="s">
         <v>5</v>
@@ -8063,10 +8067,10 @@
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="s">
-        <v>459</v>
+        <v>255</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="C474" s="1" t="s">
         <v>5</v>
@@ -8074,10 +8078,10 @@
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="s">
-        <v>226</v>
+        <v>461</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="C475" s="1" t="s">
         <v>5</v>
@@ -8085,10 +8089,10 @@
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="s">
-        <v>326</v>
+        <v>228</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>327</v>
+        <v>679</v>
       </c>
       <c r="C476" s="1" t="s">
         <v>5</v>
@@ -8096,10 +8100,10 @@
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="s">
-        <v>61</v>
+        <v>328</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>650</v>
+        <v>329</v>
       </c>
       <c r="C477" s="1" t="s">
         <v>5</v>
@@ -8107,10 +8111,10 @@
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="s">
-        <v>466</v>
+        <v>63</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>699</v>
+        <v>652</v>
       </c>
       <c r="C478" s="1" t="s">
         <v>5</v>
@@ -8118,10 +8122,10 @@
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="s">
-        <v>230</v>
+        <v>468</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="C479" s="1" t="s">
         <v>5</v>
@@ -8129,10 +8133,10 @@
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="C480" s="1" t="s">
         <v>5</v>
@@ -8140,10 +8144,10 @@
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="s">
-        <v>657</v>
+        <v>170</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C481" s="1" t="s">
         <v>5</v>
@@ -8151,10 +8155,10 @@
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="s">
-        <v>364</v>
+        <v>659</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C482" s="1" t="s">
         <v>5</v>
@@ -8162,10 +8166,10 @@
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="1" t="s">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="C483" s="1" t="s">
         <v>5</v>
@@ -8173,10 +8177,10 @@
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="s">
-        <v>207</v>
+        <v>437</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="C484" s="1" t="s">
         <v>5</v>
@@ -8184,10 +8188,10 @@
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="s">
-        <v>657</v>
+        <v>209</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>704</v>
+        <v>679</v>
       </c>
       <c r="C485" s="1" t="s">
         <v>5</v>
@@ -8198,7 +8202,7 @@
         <v>659</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>677</v>
+        <v>706</v>
       </c>
       <c r="C486" s="1" t="s">
         <v>5</v>
@@ -8209,7 +8213,7 @@
         <v>661</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="C487" s="1" t="s">
         <v>5</v>
@@ -8217,57 +8221,57 @@
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>683</v>
+        <v>5</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="s">
-        <v>684</v>
+        <v>707</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>257</v>
+        <v>708</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B491" s="1" t="s">
-        <v>707</v>
+        <v>259</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>663</v>
+        <v>709</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>325</v>
+        <v>685</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8278,7 +8282,7 @@
         <v>665</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8286,43 +8290,43 @@
         <v>666</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="s">
-        <v>66</v>
+        <v>668</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>708</v>
+        <v>667</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>58</v>
+        <v>327</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8330,73 +8334,73 @@
         <v>159</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="s">
-        <v>413</v>
+        <v>148</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="s">
-        <v>187</v>
+        <v>416</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>676</v>
+        <v>717</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>257</v>
+        <v>678</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>15</v>
@@ -8404,10 +8408,10 @@
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>677</v>
+        <v>259</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>15</v>
@@ -8415,10 +8419,10 @@
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>15</v>
@@ -8426,10 +8430,10 @@
     </row>
     <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>15</v>
@@ -8437,13 +8441,13 @@
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="s">
-        <v>716</v>
+        <v>181</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>717</v>
+        <v>680</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8454,7 +8458,7 @@
         <v>719</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8465,7 +8469,7 @@
         <v>721</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8476,7 +8480,7 @@
         <v>723</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8506,7 +8510,7 @@
         <v>728</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>491</v>
+        <v>729</v>
       </c>
       <c r="C514" s="1" t="s">
         <v>12</v>
@@ -8514,10 +8518,10 @@
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>677</v>
+        <v>493</v>
       </c>
       <c r="C515" s="1" t="s">
         <v>12</v>
@@ -8525,10 +8529,10 @@
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>731</v>
+        <v>679</v>
       </c>
       <c r="C516" s="1" t="s">
         <v>12</v>
@@ -8553,7 +8557,7 @@
         <v>735</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8572,40 +8576,40 @@
         <v>738</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>96</v>
+        <v>739</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>704</v>
+        <v>98</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>731</v>
+        <v>706</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>12</v>
@@ -8613,24 +8617,24 @@
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="s">
-        <v>459</v>
+        <v>732</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>699</v>
+        <v>733</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="s">
-        <v>741</v>
+        <v>461</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>742</v>
+        <v>701</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8638,21 +8642,21 @@
         <v>743</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>101</v>
+        <v>744</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>745</v>
+        <v>103</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8671,40 +8675,40 @@
         <v>748</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>110</v>
+        <v>749</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="s">
-        <v>429</v>
+        <v>751</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>583</v>
+        <v>112</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="s">
-        <v>589</v>
+        <v>431</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>229</v>
+        <v>585</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>5</v>
@@ -8712,10 +8716,10 @@
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>467</v>
+        <v>231</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>5</v>
@@ -8723,10 +8727,10 @@
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>592</v>
+        <v>469</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>5</v>
@@ -8734,57 +8738,57 @@
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="s">
-        <v>686</v>
+        <v>593</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>750</v>
+        <v>594</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>683</v>
+        <v>5</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="s">
-        <v>684</v>
+        <v>707</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="s">
-        <v>754</v>
+        <v>690</v>
       </c>
       <c r="B539" s="1" t="s">
         <v>755</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8795,26 +8799,26 @@
         <v>757</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="1" t="s">
-        <v>187</v>
+        <v>758</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>15</v>
+        <v>685</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C542" s="1" t="s">
         <v>15</v>
@@ -8822,10 +8826,10 @@
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C543" s="1" t="s">
         <v>15</v>
@@ -8833,10 +8837,10 @@
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C544" s="1" t="s">
         <v>15</v>
@@ -8844,10 +8848,10 @@
     </row>
     <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C545" s="1" t="s">
         <v>15</v>
@@ -8855,21 +8859,21 @@
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="s">
-        <v>445</v>
+        <v>181</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="s">
-        <v>215</v>
+        <v>447</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="C547" s="1" t="s">
         <v>5</v>
@@ -8877,10 +8881,10 @@
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="s">
-        <v>279</v>
+        <v>217</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="C548" s="1" t="s">
         <v>5</v>
@@ -8888,10 +8892,10 @@
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="s">
-        <v>763</v>
+        <v>281</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="C549" s="1" t="s">
         <v>5</v>
@@ -8921,10 +8925,10 @@
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="s">
-        <v>165</v>
+        <v>769</v>
       </c>
       <c r="B552" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C552" s="1" t="s">
         <v>5</v>
@@ -8932,10 +8936,10 @@
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="B553" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C553" s="1" t="s">
         <v>5</v>
@@ -8943,10 +8947,10 @@
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="s">
-        <v>287</v>
+        <v>255</v>
       </c>
       <c r="B554" s="1" t="s">
-        <v>752</v>
+        <v>772</v>
       </c>
       <c r="C554" s="1" t="s">
         <v>5</v>
@@ -8954,10 +8958,10 @@
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="s">
-        <v>459</v>
+        <v>289</v>
       </c>
       <c r="B555" s="1" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C555" s="1" t="s">
         <v>5</v>
@@ -8965,10 +8969,10 @@
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="s">
-        <v>226</v>
+        <v>461</v>
       </c>
       <c r="B556" s="1" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="C556" s="1" t="s">
         <v>5</v>
@@ -8976,10 +8980,10 @@
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="1" t="s">
-        <v>326</v>
+        <v>228</v>
       </c>
       <c r="B557" s="1" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="C557" s="1" t="s">
         <v>5</v>
@@ -8987,10 +8991,10 @@
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="1" t="s">
-        <v>61</v>
+        <v>328</v>
       </c>
       <c r="B558" s="1" t="s">
-        <v>650</v>
+        <v>759</v>
       </c>
       <c r="C558" s="1" t="s">
         <v>5</v>
@@ -8998,10 +9002,10 @@
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="1" t="s">
-        <v>466</v>
+        <v>63</v>
       </c>
       <c r="B559" s="1" t="s">
-        <v>750</v>
+        <v>652</v>
       </c>
       <c r="C559" s="1" t="s">
         <v>5</v>
@@ -9009,10 +9013,10 @@
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="s">
-        <v>230</v>
+        <v>468</v>
       </c>
       <c r="B560" s="1" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="C560" s="1" t="s">
         <v>5</v>
@@ -9020,10 +9024,10 @@
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="B561" s="1" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="C561" s="1" t="s">
         <v>5</v>
@@ -9031,10 +9035,10 @@
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="s">
-        <v>657</v>
+        <v>170</v>
       </c>
       <c r="B562" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C562" s="1" t="s">
         <v>5</v>
@@ -9042,10 +9046,10 @@
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="s">
-        <v>364</v>
+        <v>659</v>
       </c>
       <c r="B563" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C563" s="1" t="s">
         <v>5</v>
@@ -9053,10 +9057,10 @@
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="s">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="B564" s="1" t="s">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="C564" s="1" t="s">
         <v>5</v>
@@ -9064,7 +9068,7 @@
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="s">
-        <v>272</v>
+        <v>437</v>
       </c>
       <c r="B565" s="1" t="s">
         <v>752</v>
@@ -9075,10 +9079,10 @@
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="s">
-        <v>774</v>
+        <v>274</v>
       </c>
       <c r="B566" s="1" t="s">
-        <v>775</v>
+        <v>754</v>
       </c>
       <c r="C566" s="1" t="s">
         <v>5</v>
@@ -9086,10 +9090,10 @@
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="1" t="s">
-        <v>207</v>
+        <v>776</v>
       </c>
       <c r="B567" s="1" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="C567" s="1" t="s">
         <v>5</v>
@@ -9097,10 +9101,10 @@
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="1" t="s">
-        <v>657</v>
+        <v>209</v>
       </c>
       <c r="B568" s="1" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="C568" s="1" t="s">
         <v>5</v>
@@ -9111,7 +9115,7 @@
         <v>659</v>
       </c>
       <c r="B569" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="C569" s="1" t="s">
         <v>5</v>
@@ -9122,7 +9126,7 @@
         <v>661</v>
       </c>
       <c r="B570" s="1" t="s">
-        <v>750</v>
+        <v>764</v>
       </c>
       <c r="C570" s="1" t="s">
         <v>5</v>
@@ -9130,13 +9134,13 @@
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B571" s="1" t="s">
-        <v>663</v>
+        <v>752</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>325</v>
+        <v>5</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9147,7 +9151,7 @@
         <v>665</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9155,87 +9159,87 @@
         <v>666</v>
       </c>
       <c r="B573" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="s">
-        <v>716</v>
+        <v>668</v>
       </c>
       <c r="B574" s="1" t="s">
-        <v>717</v>
+        <v>667</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>97</v>
+        <v>327</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="B575" s="1" t="s">
-        <v>776</v>
+        <v>719</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="s">
-        <v>146</v>
+        <v>741</v>
       </c>
       <c r="B576" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="1" t="s">
-        <v>413</v>
+        <v>148</v>
       </c>
       <c r="B577" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="1" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B578" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B579" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="s">
-        <v>726</v>
+        <v>416</v>
       </c>
       <c r="B580" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9243,7 +9247,7 @@
         <v>728</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C581" s="1" t="s">
         <v>12</v>
@@ -9251,10 +9255,10 @@
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B582" s="1" t="s">
-        <v>762</v>
+        <v>784</v>
       </c>
       <c r="C582" s="1" t="s">
         <v>12</v>
@@ -9262,10 +9266,10 @@
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B583" s="1" t="s">
-        <v>733</v>
+        <v>764</v>
       </c>
       <c r="C583" s="1" t="s">
         <v>12</v>
@@ -9273,10 +9277,10 @@
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="B584" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C584" s="1" t="s">
         <v>12</v>
@@ -9284,35 +9288,35 @@
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="s">
-        <v>66</v>
+        <v>742</v>
       </c>
       <c r="B585" s="1" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B586" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="B587" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9320,32 +9324,32 @@
         <v>159</v>
       </c>
       <c r="B588" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="1" t="s">
-        <v>417</v>
+        <v>161</v>
       </c>
       <c r="B589" s="1" t="s">
-        <v>783</v>
+        <v>713</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="1" t="s">
-        <v>784</v>
+        <v>419</v>
       </c>
       <c r="B590" s="1" t="s">
         <v>785</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9353,65 +9357,65 @@
         <v>786</v>
       </c>
       <c r="B591" s="1" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="1" t="s">
-        <v>421</v>
+        <v>788</v>
       </c>
       <c r="B592" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="1" t="s">
-        <v>686</v>
+        <v>423</v>
       </c>
       <c r="B593" s="1" t="s">
-        <v>750</v>
+        <v>785</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>683</v>
+        <v>60</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="1" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="B594" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="B595" s="1" t="s">
         <v>753</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="s">
-        <v>754</v>
+        <v>690</v>
       </c>
       <c r="B596" s="1" t="s">
         <v>755</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9422,26 +9426,26 @@
         <v>757</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="s">
-        <v>187</v>
+        <v>758</v>
       </c>
       <c r="B598" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>15</v>
+        <v>685</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="s">
-        <v>261</v>
+        <v>189</v>
       </c>
       <c r="B599" s="1" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C599" s="1" t="s">
         <v>15</v>
@@ -9449,10 +9453,10 @@
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="s">
-        <v>193</v>
+        <v>263</v>
       </c>
       <c r="B600" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C600" s="1" t="s">
         <v>15</v>
@@ -9460,10 +9464,10 @@
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="B601" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C601" s="1" t="s">
         <v>15</v>
@@ -9471,10 +9475,10 @@
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C602" s="1" t="s">
         <v>15</v>
@@ -9482,21 +9486,21 @@
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="s">
-        <v>445</v>
+        <v>181</v>
       </c>
       <c r="B603" s="1" t="s">
-        <v>750</v>
+        <v>763</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="s">
-        <v>215</v>
+        <v>447</v>
       </c>
       <c r="B604" s="1" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="C604" s="1" t="s">
         <v>5</v>
@@ -9504,7 +9508,7 @@
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="1" t="s">
-        <v>763</v>
+        <v>217</v>
       </c>
       <c r="B605" s="1" t="s">
         <v>764</v>
@@ -9537,10 +9541,10 @@
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="1" t="s">
-        <v>165</v>
+        <v>769</v>
       </c>
       <c r="B608" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C608" s="1" t="s">
         <v>5</v>
@@ -9548,10 +9552,10 @@
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="1" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C609" s="1" t="s">
         <v>5</v>
@@ -9559,10 +9563,10 @@
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="1" t="s">
-        <v>459</v>
+        <v>255</v>
       </c>
       <c r="B610" s="1" t="s">
-        <v>750</v>
+        <v>772</v>
       </c>
       <c r="C610" s="1" t="s">
         <v>5</v>
@@ -9570,10 +9574,10 @@
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="1" t="s">
-        <v>226</v>
+        <v>461</v>
       </c>
       <c r="B611" s="1" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="C611" s="1" t="s">
         <v>5</v>
@@ -9581,10 +9585,10 @@
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="1" t="s">
-        <v>326</v>
+        <v>228</v>
       </c>
       <c r="B612" s="1" t="s">
-        <v>757</v>
+        <v>764</v>
       </c>
       <c r="C612" s="1" t="s">
         <v>5</v>
@@ -9592,10 +9596,10 @@
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="s">
-        <v>61</v>
+        <v>328</v>
       </c>
       <c r="B613" s="1" t="s">
-        <v>650</v>
+        <v>759</v>
       </c>
       <c r="C613" s="1" t="s">
         <v>5</v>
@@ -9603,10 +9607,10 @@
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="1" t="s">
-        <v>466</v>
+        <v>63</v>
       </c>
       <c r="B614" s="1" t="s">
-        <v>750</v>
+        <v>652</v>
       </c>
       <c r="C614" s="1" t="s">
         <v>5</v>
@@ -9614,10 +9618,10 @@
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="s">
-        <v>230</v>
+        <v>468</v>
       </c>
       <c r="B615" s="1" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="C615" s="1" t="s">
         <v>5</v>
@@ -9625,10 +9629,10 @@
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="B616" s="1" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="C616" s="1" t="s">
         <v>5</v>
@@ -9636,10 +9640,10 @@
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="1" t="s">
-        <v>657</v>
+        <v>170</v>
       </c>
       <c r="B617" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C617" s="1" t="s">
         <v>5</v>
@@ -9647,10 +9651,10 @@
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="1" t="s">
-        <v>364</v>
+        <v>659</v>
       </c>
       <c r="B618" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C618" s="1" t="s">
         <v>5</v>
@@ -9658,10 +9662,10 @@
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="s">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="B619" s="1" t="s">
-        <v>750</v>
+        <v>775</v>
       </c>
       <c r="C619" s="1" t="s">
         <v>5</v>
@@ -9669,10 +9673,10 @@
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="s">
-        <v>207</v>
+        <v>437</v>
       </c>
       <c r="B620" s="1" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="C620" s="1" t="s">
         <v>5</v>
@@ -9680,10 +9684,10 @@
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="s">
-        <v>657</v>
+        <v>209</v>
       </c>
       <c r="B621" s="1" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="C621" s="1" t="s">
         <v>5</v>
@@ -9694,7 +9698,7 @@
         <v>659</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
       <c r="C622" s="1" t="s">
         <v>5</v>
@@ -9705,7 +9709,7 @@
         <v>661</v>
       </c>
       <c r="B623" s="1" t="s">
-        <v>750</v>
+        <v>764</v>
       </c>
       <c r="C623" s="1" t="s">
         <v>5</v>
@@ -9713,13 +9717,13 @@
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B624" s="1" t="s">
-        <v>663</v>
+        <v>752</v>
       </c>
       <c r="C624" s="1" t="s">
-        <v>325</v>
+        <v>5</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9730,7 +9734,7 @@
         <v>665</v>
       </c>
       <c r="C625" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9738,87 +9742,87 @@
         <v>666</v>
       </c>
       <c r="B626" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C626" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="s">
-        <v>716</v>
+        <v>668</v>
       </c>
       <c r="B627" s="1" t="s">
-        <v>717</v>
+        <v>667</v>
       </c>
       <c r="C627" s="1" t="s">
-        <v>97</v>
+        <v>327</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="B628" s="1" t="s">
-        <v>776</v>
+        <v>719</v>
       </c>
       <c r="C628" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="s">
-        <v>146</v>
+        <v>741</v>
       </c>
       <c r="B629" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C629" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="s">
-        <v>413</v>
+        <v>148</v>
       </c>
       <c r="B630" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C630" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B631" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C631" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="B632" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C632" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="s">
-        <v>726</v>
+        <v>416</v>
       </c>
       <c r="B633" s="1" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C633" s="1" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9826,7 +9830,7 @@
         <v>728</v>
       </c>
       <c r="B634" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C634" s="1" t="s">
         <v>12</v>
@@ -9834,10 +9838,10 @@
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B635" s="1" t="s">
-        <v>762</v>
+        <v>784</v>
       </c>
       <c r="C635" s="1" t="s">
         <v>12</v>
@@ -9845,10 +9849,10 @@
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B636" s="1" t="s">
-        <v>733</v>
+        <v>764</v>
       </c>
       <c r="C636" s="1" t="s">
         <v>12</v>
@@ -9856,10 +9860,10 @@
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="B637" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C637" s="1" t="s">
         <v>12</v>
@@ -9867,35 +9871,35 @@
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="s">
-        <v>66</v>
+        <v>742</v>
       </c>
       <c r="B638" s="1" t="s">
-        <v>708</v>
+        <v>735</v>
       </c>
       <c r="C638" s="1" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C639" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="B640" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C640" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9903,32 +9907,32 @@
         <v>159</v>
       </c>
       <c r="B641" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C641" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="s">
-        <v>417</v>
+        <v>161</v>
       </c>
       <c r="B642" s="1" t="s">
-        <v>783</v>
+        <v>713</v>
       </c>
       <c r="C642" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
-        <v>784</v>
+        <v>419</v>
       </c>
       <c r="B643" s="1" t="s">
         <v>785</v>
       </c>
       <c r="C643" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9936,32 +9940,32 @@
         <v>786</v>
       </c>
       <c r="B644" s="1" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="C644" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="s">
-        <v>421</v>
+        <v>788</v>
       </c>
       <c r="B645" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="C645" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="s">
-        <v>787</v>
+        <v>423</v>
       </c>
       <c r="B646" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C646" s="1" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9980,21 +9984,21 @@
         <v>791</v>
       </c>
       <c r="B648" s="1" t="s">
-        <v>719</v>
+        <v>792</v>
       </c>
       <c r="C648" s="1" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B649" s="1" t="s">
-        <v>793</v>
+        <v>721</v>
       </c>
       <c r="C649" s="1" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10005,7 +10009,7 @@
         <v>795</v>
       </c>
       <c r="C650" s="1" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10016,7 +10020,7 @@
         <v>797</v>
       </c>
       <c r="C651" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10027,18 +10031,18 @@
         <v>799</v>
       </c>
       <c r="C652" s="1" t="s">
-        <v>800</v>
+        <v>99</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="B653" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B653" s="1" t="s">
+      <c r="C653" s="1" t="s">
         <v>802</v>
-      </c>
-      <c r="C653" s="1" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10049,7 +10053,7 @@
         <v>804</v>
       </c>
       <c r="C654" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10060,7 +10064,7 @@
         <v>806</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10071,7 +10075,7 @@
         <v>808</v>
       </c>
       <c r="C656" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10082,7 +10086,7 @@
         <v>810</v>
       </c>
       <c r="C657" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10093,7 +10097,7 @@
         <v>812</v>
       </c>
       <c r="C658" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10104,7 +10108,7 @@
         <v>814</v>
       </c>
       <c r="C659" s="1" t="s">
-        <v>97</v>
+        <v>802</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10115,7 +10119,7 @@
         <v>816</v>
       </c>
       <c r="C660" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10126,7 +10130,7 @@
         <v>818</v>
       </c>
       <c r="C661" s="1" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10142,76 +10146,76 @@
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B663" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="B663" s="1" t="s">
-        <v>822</v>
-      </c>
       <c r="C663" s="1" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="B664" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="B664" s="1" t="s">
-        <v>824</v>
-      </c>
       <c r="C664" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="B665" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="B665" s="1" t="s">
-        <v>826</v>
-      </c>
       <c r="C665" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B666" s="1" t="s">
-        <v>828</v>
+        <v>723</v>
       </c>
       <c r="C666" s="1" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B667" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C667" s="1" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="1" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B668" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C668" s="1" t="s">
-        <v>5</v>
+        <v>99</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B669" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C669" s="1" t="s">
         <v>5</v>
@@ -10219,10 +10223,10 @@
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="1" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B670" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C670" s="1" t="s">
         <v>5</v>
@@ -10230,10 +10234,10 @@
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B671" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C671" s="1" t="s">
         <v>5</v>
@@ -10241,65 +10245,65 @@
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B672" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C672" s="1" t="s">
-        <v>800</v>
+        <v>5</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C673" s="1" t="s">
-        <v>12</v>
+        <v>802</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B674" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C674" s="1" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="1" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B675" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C675" s="1" t="s">
-        <v>683</v>
+        <v>99</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B676" s="1" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C676" s="1" t="s">
-        <v>849</v>
+        <v>685</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="B677" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C677" s="1" t="s">
         <v>849</v>
@@ -10307,21 +10311,21 @@
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="1" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B678" s="1" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C678" s="1" t="s">
-        <v>5</v>
+        <v>849</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="1" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B679" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C679" s="1" t="s">
         <v>5</v>
@@ -10329,21 +10333,21 @@
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B680" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C680" s="1" t="s">
-        <v>849</v>
+        <v>5</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="1" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B681" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C681" s="1" t="s">
         <v>849</v>
@@ -10351,43 +10355,43 @@
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B682" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="C682" s="1" t="s">
-        <v>12</v>
+        <v>849</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B683" s="1" t="s">
-        <v>851</v>
+        <v>861</v>
       </c>
       <c r="C683" s="1" t="s">
-        <v>849</v>
+        <v>12</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B684" s="1" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="C684" s="1" t="s">
-        <v>5</v>
+        <v>849</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B685" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C685" s="1" t="s">
         <v>5</v>
@@ -10395,21 +10399,21 @@
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B686" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C686" s="1" t="s">
-        <v>849</v>
+        <v>5</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B687" s="1" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C687" s="1" t="s">
         <v>849</v>
@@ -10417,10 +10421,10 @@
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="1" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C688" s="1" t="s">
         <v>849</v>
@@ -10428,10 +10432,10 @@
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B689" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C689" s="1" t="s">
         <v>849</v>
@@ -10439,10 +10443,10 @@
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B690" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C690" s="1" t="s">
         <v>849</v>
@@ -10450,65 +10454,65 @@
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B691" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C691" s="1" t="s">
-        <v>58</v>
+        <v>849</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B692" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C692" s="1" t="s">
-        <v>325</v>
+        <v>60</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B693" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C693" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B694" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C694" s="1" t="s">
-        <v>58</v>
+        <v>327</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B695" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C695" s="1" t="s">
-        <v>849</v>
+        <v>60</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B696" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C696" s="1" t="s">
         <v>849</v>
@@ -10516,43 +10520,43 @@
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B697" s="1" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C697" s="1" t="s">
-        <v>12</v>
+        <v>849</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B698" s="1" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C698" s="1" t="s">
-        <v>893</v>
+        <v>12</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B699" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C699" s="1" t="s">
-        <v>849</v>
+        <v>893</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B700" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="C700" s="1" t="s">
         <v>849</v>
@@ -10560,21 +10564,21 @@
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B701" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C701" s="1" t="s">
-        <v>5</v>
+        <v>849</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="1" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B702" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C702" s="1" t="s">
         <v>5</v>
@@ -10582,10 +10586,10 @@
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B703" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="C703" s="1" t="s">
         <v>5</v>
@@ -10593,10 +10597,10 @@
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="1" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B704" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C704" s="1" t="s">
         <v>5</v>
@@ -10604,16 +10608,26 @@
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="B705" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C705" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="B705" s="1" t="s">
+      <c r="B706" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="C705" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="C706" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
